--- a/EmployeeSQL/File ERD.xlsx
+++ b/EmployeeSQL/File ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbarr\Desktop\Boot Camp\sql-challenge\EmployeeSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8783988B-D8AB-488C-BC43-FA93D7E479BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E4B32-EC7C-445E-95F1-B840AFEF89CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1500" windowWidth="20730" windowHeight="11040" xr2:uid="{49305FF5-A975-46E4-A885-8EF5E3E9655A}"/>
   </bookViews>
